--- a/tests/testcases.xlsx
+++ b/tests/testcases.xlsx
@@ -1,41 +1,75 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="W:\Tai lieu mon hoc\TestSoft\Demo Seminar\tests\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F635066-D61C-4E44-8EB8-10CD7DE8A706}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="2268" yWindow="2268" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
-<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
-  <metadataTypes count="1">
-    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
-  </metadataTypes>
-  <futureMetadata name="XLDAPR" count="1">
-    <bk>
-      <extLst>
-        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
-          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
-        </ext>
-      </extLst>
-    </bk>
-  </futureMetadata>
-  <cellMetadata count="1">
-    <bk>
-      <rc t="1" v="0"/>
-    </bk>
-  </cellMetadata>
-</metadata>
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="10">
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Age</t>
+  </si>
+  <si>
+    <t>Expected result</t>
+  </si>
+  <si>
+    <t>Result</t>
+  </si>
+  <si>
+    <t>Match</t>
+  </si>
+  <si>
+    <t>Nguyen Van A</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>Demon king Faker</t>
+  </si>
+  <si>
+    <t>Ab</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:vt="http://schemas.openxmlformats.org/officeDocument/2006/docPropsVTypes">
-  <numFmts count="1">
-    <numFmt numFmtId="56" formatCode="&quot;上午/下午 &quot;hh&quot;時&quot;mm&quot;分&quot;ss&quot;秒 &quot;"/>
-  </numFmts>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -65,13 +99,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -396,77 +438,94 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView workbookViewId="0" rightToLeft="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
+    </sheetView>
   </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="13.8984375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.8984375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="str">
-        <v>Name</v>
-      </c>
-      <c r="B1" t="str">
-        <v>Email</v>
-      </c>
-      <c r="C1" t="str">
-        <v>Age</v>
-      </c>
-      <c r="D1" t="str">
-        <v>Result</v>
+    <row r="1" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="str">
-        <v>Nguyen Van A</v>
-      </c>
-      <c r="B2" t="str">
-        <v>chuan@gmail.com</v>
-      </c>
-      <c r="C2">
+    <row r="2" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2">
         <v>25</v>
       </c>
-      <c r="D2" t="str">
-        <v>P</v>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" t="str">
+        <f>IF(D2=C2, "Matched", "Not Matched")</f>
+        <v>Matched</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="str">
-        <v>Demon king Faker</v>
-      </c>
-      <c r="B3" t="str">
-        <v>faker@gmail.com</v>
-      </c>
-      <c r="C3">
+    <row r="3" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3">
         <v>28</v>
       </c>
-      <c r="D3" t="str">
-        <v>P</v>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" t="str">
+        <f t="shared" ref="E3:E4" si="0">IF(D3=C3, "Matched", "Not Matched")</f>
+        <v>Matched</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="str">
-        <v>Ab</v>
-      </c>
-      <c r="B4" t="str">
-        <v>abc@gmail.com</v>
-      </c>
-      <c r="C4">
+    <row r="4" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4">
         <v>30</v>
       </c>
-      <c r="D4" t="str">
-        <v>F</v>
+      <c r="C4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" t="str">
+        <f t="shared" si="0"/>
+        <v>Not Matched</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1"/>
-    <hyperlink ref="B3" r:id="rId2"/>
-    <hyperlink ref="B4" r:id="rId3"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:D4"/>
+    <ignoredError sqref="A1:E1 A3:D3 A2:D2 A4:B4 D4" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/tests/testcases.xlsx
+++ b/tests/testcases.xlsx
@@ -1,75 +1,41 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <workbookPr codeName="ThisWorkbook"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="W:\Tai lieu mon hoc\TestSoft\Demo Seminar\tests\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F635066-D61C-4E44-8EB8-10CD7DE8A706}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
-  <bookViews>
-    <workbookView xWindow="2268" yWindow="2268" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
-  </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="10">
-  <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>Age</t>
-  </si>
-  <si>
-    <t>Expected result</t>
-  </si>
-  <si>
-    <t>Result</t>
-  </si>
-  <si>
-    <t>Match</t>
-  </si>
-  <si>
-    <t>Nguyen Van A</t>
-  </si>
-  <si>
-    <t>P</t>
-  </si>
-  <si>
-    <t>Demon king Faker</t>
-  </si>
-  <si>
-    <t>Ab</t>
-  </si>
-  <si>
-    <t>F</t>
-  </si>
-</sst>
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:vt="http://schemas.openxmlformats.org/officeDocument/2006/docPropsVTypes">
+  <numFmts count="1">
+    <numFmt numFmtId="56" formatCode="&quot;上午/下午 &quot;hh&quot;時&quot;mm&quot;分&quot;ss&quot;秒 &quot;"/>
+  </numFmts>
+  <fonts count="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -99,21 +65,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -438,94 +396,87 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
-    </sheetView>
+    <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="3" max="3" width="13.8984375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.8984375" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
+    <row r="1">
+      <c r="A1" t="str">
+        <v>Name</v>
+      </c>
+      <c r="B1" t="str">
+        <v>Age</v>
+      </c>
+      <c r="C1" t="str">
+        <v>Expected result</v>
+      </c>
+      <c r="D1" t="str">
+        <v>Result</v>
+      </c>
+      <c r="E1" t="str">
+        <v>Match</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>5</v>
+    <row r="2">
+      <c r="A2" t="str">
+        <v>Nguyen Van A</v>
       </c>
       <c r="B2">
         <v>25</v>
       </c>
-      <c r="C2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" t="s">
-        <v>6</v>
+      <c r="C2" t="str">
+        <v>P</v>
+      </c>
+      <c r="D2" t="str">
+        <v>P</v>
       </c>
       <c r="E2" t="str">
         <f>IF(D2=C2, "Matched", "Not Matched")</f>
         <v>Matched</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>7</v>
+    <row r="3">
+      <c r="A3" t="str">
+        <v>Demon king Faker</v>
       </c>
       <c r="B3">
         <v>28</v>
       </c>
-      <c r="C3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" t="s">
-        <v>6</v>
+      <c r="C3" t="str">
+        <v>P</v>
+      </c>
+      <c r="D3" t="str">
+        <v>P</v>
       </c>
       <c r="E3" t="str">
-        <f t="shared" ref="E3:E4" si="0">IF(D3=C3, "Matched", "Not Matched")</f>
+        <f>IF(D3=C3, "Matched", "Not Matched")</f>
         <v>Matched</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>8</v>
+    <row r="4">
+      <c r="A4" t="str">
+        <v>Ab</v>
       </c>
       <c r="B4">
         <v>30</v>
       </c>
-      <c r="C4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" t="s">
-        <v>6</v>
+      <c r="C4" t="str">
+        <v>F</v>
+      </c>
+      <c r="D4" t="str">
+        <v>F</v>
       </c>
       <c r="E4" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(D4=C4, "Matched", "Not Matched")</f>
         <v>Not Matched</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="A1:E1 A3:D3 A2:D2 A4:B4 D4" numberStoredAsText="1"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:E4"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/tests/testcases.xlsx
+++ b/tests/testcases.xlsx
@@ -1,41 +1,87 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="W:\Tai lieu mon hoc\TestSoft\Demo Seminar\tests\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDFED252-9B1F-4F7E-B205-03AE300C82E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="2268" yWindow="2268" windowWidth="17292" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
-<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
-  <metadataTypes count="1">
-    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
-  </metadataTypes>
-  <futureMetadata name="XLDAPR" count="1">
-    <bk>
-      <extLst>
-        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
-          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
-        </ext>
-      </extLst>
-    </bk>
-  </futureMetadata>
-  <cellMetadata count="1">
-    <bk>
-      <rc t="1" v="0"/>
-    </bk>
-  </cellMetadata>
-</metadata>
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="14">
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Age</t>
+  </si>
+  <si>
+    <t>Expected result</t>
+  </si>
+  <si>
+    <t>Result</t>
+  </si>
+  <si>
+    <t>Match</t>
+  </si>
+  <si>
+    <t>Nguyen Van A</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>Demon king Faker</t>
+  </si>
+  <si>
+    <t>Ab</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>A1</t>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>Hello</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:vt="http://schemas.openxmlformats.org/officeDocument/2006/docPropsVTypes">
-  <numFmts count="1">
-    <numFmt numFmtId="56" formatCode="&quot;上午/下午 &quot;hh&quot;時&quot;mm&quot;分&quot;ss&quot;秒 &quot;"/>
-  </numFmts>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -65,13 +111,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -396,87 +450,151 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView workbookViewId="0" rightToLeft="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
   </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="str">
-        <v>Name</v>
-      </c>
-      <c r="B1" t="str">
-        <v>Age</v>
-      </c>
-      <c r="C1" t="str">
-        <v>Expected result</v>
-      </c>
-      <c r="D1" t="str">
-        <v>Result</v>
-      </c>
-      <c r="E1" t="str">
-        <v>Match</v>
+    <row r="1" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="str">
-        <v>Nguyen Van A</v>
+    <row r="2" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>5</v>
       </c>
       <c r="B2">
         <v>25</v>
       </c>
-      <c r="C2" t="str">
-        <v>P</v>
-      </c>
-      <c r="D2" t="str">
-        <v>P</v>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
+        <v>6</v>
       </c>
       <c r="E2" t="str">
-        <f>IF(D2=C2, "Matched", "Not Matched")</f>
+        <f t="shared" ref="E2:E14" si="0">IF(D2="", "", IF(D2=C2, "Matched", "Not Matched"))</f>
         <v>Matched</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="str">
-        <v>Demon king Faker</v>
+    <row r="3" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>7</v>
       </c>
       <c r="B3">
         <v>28</v>
       </c>
-      <c r="C3" t="str">
-        <v>P</v>
-      </c>
-      <c r="D3" t="str">
-        <v>P</v>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" t="s">
+        <v>6</v>
       </c>
       <c r="E3" t="str">
-        <f>IF(D3=C3, "Matched", "Not Matched")</f>
+        <f t="shared" si="0"/>
         <v>Matched</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="str">
-        <v>Ab</v>
+    <row r="4" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>8</v>
       </c>
       <c r="B4">
         <v>30</v>
       </c>
-      <c r="C4" t="str">
-        <v>F</v>
-      </c>
-      <c r="D4" t="str">
-        <v>F</v>
+      <c r="C4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" t="s">
+        <v>6</v>
       </c>
       <c r="E4" t="str">
-        <f>IF(D4=C4, "Matched", "Not Matched")</f>
+        <f t="shared" si="0"/>
         <v>Not Matched</v>
       </c>
     </row>
+    <row r="5" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" t="str">
+        <f t="shared" si="0"/>
+        <v>Matched</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" t="str">
+        <f t="shared" si="0"/>
+        <v>Matched</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7">
+        <v>30</v>
+      </c>
+      <c r="C7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E7" t="str">
+        <f t="shared" si="0"/>
+        <v>Matched</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="15.6" x14ac:dyDescent="0.3"/>
+    <row r="9" spans="1:5" ht="15.6" x14ac:dyDescent="0.3"/>
+    <row r="10" spans="1:5" ht="15.6" x14ac:dyDescent="0.3"/>
+    <row r="11" spans="1:5" ht="15.6" x14ac:dyDescent="0.3"/>
+    <row r="12" spans="1:5" ht="15.6" x14ac:dyDescent="0.3"/>
+    <row r="13" spans="1:5" ht="15.6" x14ac:dyDescent="0.3"/>
+    <row r="14" spans="1:5" ht="15.6" x14ac:dyDescent="0.3"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:E4"/>
+    <ignoredError sqref="A1:E5 A9:C14 A7:E7 B6:E6" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>